--- a/biology/Zoologie/Icius_kui/Icius_kui.xlsx
+++ b/biology/Zoologie/Icius_kui/Icius_kui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Icius kui est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Icius kui est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Tibet en Chine[1],[2]. Elle se rencontre dans les xians de Gongbo'gyamda, de Bomi et de Namling.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Tibet en Chine,. Elle se rencontre dans les xians de Gongbo'gyamda, de Bomi et de Namling.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,11 mm de long sur 1,46 mm et l'abdomen 2,51 mm de long sur 1,54 mm et la carapace de la femelle paratype mesure 1,79 mm de long sur 1,52 mm et l'abdomen 2,28 mm de long sur 1,46 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,11 mm de long sur 1,46 mm et l'abdomen 2,51 mm de long sur 1,54 mm et la carapace de la femelle paratype mesure 1,79 mm de long sur 1,52 mm et l'abdomen 2,28 mm de long sur 1,46 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Yang et Zhang en 2024.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Yang &amp; Zhang, 2024 : « On eight species of Chrysillini from Xizang, China (Araneae: Salticidae: Salticinae). » Zootaxa, no 5447(2), p. 151-187.</t>
         </is>
